--- a/excellDB/db.xlsx
+++ b/excellDB/db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\elfasQBot\excellDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\elfasQBot\excellDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030D536-84F5-4CC3-8223-8D71ABD8AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD92B213-F984-4C46-BDFA-D105E2B7C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6DFC63BA-8C2B-447C-8252-A6F26D21E750}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DFC63BA-8C2B-447C-8252-A6F26D21E750}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>What would you like to drink?</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -498,29 +501,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705D43FD-F36C-4049-8E24-4F7CFB8D49F7}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="31.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="22.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,8 +563,12 @@
       <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="str">
+        <f>CONCATENATE("[",N3,N4,N5,N6,N7,N8,"]")</f>
+        <v>[{"ques":"What do you do?","topic":"General","level":"[100,0,0,0,0,0]"},{"ques":"Are you married?","topic":"General","level":"[66.67,33.33,0,0,0,0]"},{"ques":"Why are you studying English?","topic":"General","level":"[100,0,0,0,0,0]"},{"ques":"What do you do in your free time?","topic":"General","level":"[85.71,14.29,0,0,0,0]"},{"ques":"What’s the weather like?","topic":"General","level":"[100,0,0,0,0,0]"},{"ques":"What would you like to drink?","topic":"General","level":"[100,0,0,0,0,0]"},]</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -590,8 +603,12 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="str">
+        <f>CONCATENATE("{",$N$1,"ques",$N$1,":",$N$1,C3,$N$1,",",$N$1,"topic",$N$1,":",$N$1,E3,$N$1,",",$N$1,"level",$N$1,":",$N$1,F3,$N$1,"},")</f>
+        <v>{"ques":"What do you do?","topic":"General","level":"[100,0,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
@@ -603,21 +620,36 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="str">
+        <f t="shared" ref="F4:F8" si="0">CONCATENATE("[",G4,",",H4,",",I4,",",J4,",",K4,",",L4,"]")</f>
+        <v>[66.67,33.33,0,0,0,0]</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="1">CONCATENATE("{",$N$1,"ques",$N$1,":",$N$1,C4,$N$1,",",$N$1,"topic",$N$1,":",$N$1,E4,$N$1,",",$N$1,"level",$N$1,":",$N$1,F4,$N$1,"},")</f>
+        <v>{"ques":"Are you married?","topic":"General","level":"[66.67,33.33,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B15" si="0">B4+1</f>
+        <f t="shared" ref="B5:B15" si="2">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -627,19 +659,36 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[100,0,0,0,0,0]</v>
+      </c>
       <c r="G5" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ques":"Why are you studying English?","topic":"General","level":"[100,0,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -649,21 +698,36 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[85.71,14.29,0,0,0,0]</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ques":"What do you do in your free time?","topic":"General","level":"[85.71,14.29,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -673,19 +737,36 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[100,0,0,0,0,0]</v>
+      </c>
       <c r="G7" s="7">
         <v>100</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ques":"What’s the weather like?","topic":"General","level":"[100,0,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -695,19 +776,36 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[100,0,0,0,0,0]</v>
+      </c>
       <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ques":"What would you like to drink?","topic":"General","level":"[100,0,0,0,0,0]"},</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
@@ -723,9 +821,9 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
@@ -741,9 +839,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
@@ -759,9 +857,9 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
@@ -777,9 +875,9 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C13" s="6"/>
@@ -795,9 +893,9 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
@@ -813,9 +911,9 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C15" s="6"/>
@@ -831,7 +929,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
